--- a/code_generate_figures/save_data/FPs_all.xlsx
+++ b/code_generate_figures/save_data/FPs_all.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -73,72 +73,72 @@
     <t xml:space="preserve">6</t>
   </si>
   <si>
-    <t xml:space="preserve">No_norm&amp;proDA</t>
+    <t xml:space="preserve">proDA&amp;No_norm</t>
   </si>
   <si>
     <t xml:space="preserve">7</t>
   </si>
   <si>
-    <t xml:space="preserve">No_norm&amp;DEP</t>
+    <t xml:space="preserve">DEP&amp;No_norm</t>
   </si>
   <si>
     <t xml:space="preserve">8</t>
   </si>
   <si>
+    <t xml:space="preserve">No_norm&amp;limma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lossf&amp;limma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">proDA&amp;lossf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">div.mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">div.median</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MBQN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ttest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANOVA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FG_TMT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">abd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ratio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">center.median</t>
+  </si>
+  <si>
+    <t xml:space="preserve">phi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROTS</t>
+  </si>
+  <si>
     <t xml:space="preserve">limma&amp;No_norm</t>
   </si>
   <si>
-    <t xml:space="preserve">9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lossf&amp;limma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lossf&amp;proDA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">div.mean</t>
-  </si>
-  <si>
-    <t xml:space="preserve">div.median</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MBQN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ttest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANOVA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FG_TMT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">abd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ratio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">center.median</t>
-  </si>
-  <si>
-    <t xml:space="preserve">phi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROTS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No_norm&amp;limma</t>
-  </si>
-  <si>
     <t xml:space="preserve">11</t>
   </si>
   <si>
@@ -148,7 +148,7 @@
     <t xml:space="preserve">12</t>
   </si>
   <si>
-    <t xml:space="preserve">abd&amp;limma</t>
+    <t xml:space="preserve">limma&amp;abd</t>
   </si>
   <si>
     <t xml:space="preserve">13</t>
@@ -160,13 +160,13 @@
     <t xml:space="preserve">14</t>
   </si>
   <si>
-    <t xml:space="preserve">ratio&amp;limma</t>
+    <t xml:space="preserve">limma&amp;ratio</t>
   </si>
   <si>
     <t xml:space="preserve">15</t>
   </si>
   <si>
-    <t xml:space="preserve">ratio&amp;center.median</t>
+    <t xml:space="preserve">center.median&amp;ratio</t>
   </si>
   <si>
     <t xml:space="preserve">16</t>
@@ -178,25 +178,22 @@
     <t xml:space="preserve">17</t>
   </si>
   <si>
-    <t xml:space="preserve">proDA&amp;No_norm</t>
-  </si>
-  <si>
     <t xml:space="preserve">18</t>
   </si>
   <si>
-    <t xml:space="preserve">proDA&amp;phi</t>
+    <t xml:space="preserve">phi&amp;proDA</t>
   </si>
   <si>
     <t xml:space="preserve">19</t>
   </si>
   <si>
-    <t xml:space="preserve">No_norm&amp;phi</t>
+    <t xml:space="preserve">phi&amp;No_norm</t>
   </si>
   <si>
     <t xml:space="preserve">20</t>
   </si>
   <si>
-    <t xml:space="preserve">limma&amp;phi</t>
+    <t xml:space="preserve">phi&amp;limma</t>
   </si>
   <si>
     <t xml:space="preserve">21</t>
@@ -220,16 +217,16 @@
     <t xml:space="preserve">24</t>
   </si>
   <si>
+    <t xml:space="preserve">limma&amp;lossf</t>
+  </si>
+  <si>
     <t xml:space="preserve">25</t>
   </si>
   <si>
-    <t xml:space="preserve">proDA&amp;lossf</t>
-  </si>
-  <si>
     <t xml:space="preserve">26</t>
   </si>
   <si>
-    <t xml:space="preserve">lossf&amp;phi</t>
+    <t xml:space="preserve">phi&amp;lossf</t>
   </si>
   <si>
     <t xml:space="preserve">dlfq</t>
@@ -238,100 +235,103 @@
     <t xml:space="preserve">FG_DDA</t>
   </si>
   <si>
+    <t xml:space="preserve">DEqMS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">missForest</t>
+  </si>
+  <si>
     <t xml:space="preserve">SeqKNN</t>
   </si>
   <si>
-    <t xml:space="preserve">missForest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DEqMS</t>
+    <t xml:space="preserve">Impseq</t>
   </si>
   <si>
     <t xml:space="preserve">Rlr</t>
   </si>
   <si>
-    <t xml:space="preserve">Impseq</t>
+    <t xml:space="preserve">LFQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">center.mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dlfq&amp;No_norm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LFQ&amp;No_norm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEqMS&amp;dlfq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dlfq&amp;ROTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">limma&amp;dlfq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">top3</t>
   </si>
   <si>
     <t xml:space="preserve">top0</t>
   </si>
   <si>
-    <t xml:space="preserve">LFQ</t>
+    <t xml:space="preserve">count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vsn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">quantiles.robust</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GMS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MQ_DDA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dlfq&amp;lossf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rlr&amp;dlfq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dlfq&amp;DEP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIANN_DIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MinDet</t>
   </si>
   <si>
     <t xml:space="preserve">MinProb</t>
   </si>
   <si>
-    <t xml:space="preserve">center.mean</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No_norm&amp;dlfq</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROTS&amp;dlfq</t>
+    <t xml:space="preserve">quantiles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LFQ&amp;ROTS</t>
   </si>
   <si>
     <t xml:space="preserve">proDA&amp;dlfq</t>
   </si>
   <si>
-    <t xml:space="preserve">limma&amp;LFQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TIC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vsn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">count</t>
-  </si>
-  <si>
-    <t xml:space="preserve">top3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">quantiles.robust</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GMS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MQ_DDA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dlfq&amp;limma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lossf&amp;dlfq</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dlfq&amp;Rlr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIANN_DIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MinDet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">quantiles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No_norm&amp;LFQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROTS&amp;LFQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dlfq&amp;center.mean</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dlfq&amp;center.median</t>
+    <t xml:space="preserve">center.mean&amp;dlfq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">center.median&amp;dlfq</t>
   </si>
   <si>
     <t xml:space="preserve">top1</t>
@@ -340,10 +340,7 @@
     <t xml:space="preserve">spt_DIA</t>
   </si>
   <si>
-    <t xml:space="preserve">dlfq&amp;quantiles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DEP&amp;dlfq</t>
+    <t xml:space="preserve">center.mean&amp;ROTS</t>
   </si>
 </sst>
 </file>
@@ -868,7 +865,7 @@
         <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3">
@@ -879,10 +876,10 @@
         <v>0.168045830681095</v>
       </c>
       <c r="C3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4">
@@ -896,7 +893,7 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5">
@@ -907,10 +904,10 @@
         <v>0.285805219605347</v>
       </c>
       <c r="C5" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6">
@@ -924,7 +921,7 @@
         <v>103</v>
       </c>
       <c r="D6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7">
@@ -938,7 +935,7 @@
         <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8">
@@ -949,10 +946,10 @@
         <v>0.157861234882241</v>
       </c>
       <c r="C8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9">
@@ -963,10 +960,10 @@
         <v>0.100254614894971</v>
       </c>
       <c r="C9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10">
@@ -980,7 +977,7 @@
         <v>29</v>
       </c>
       <c r="D10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11">
@@ -991,10 +988,10 @@
         <v>0.124761298535964</v>
       </c>
       <c r="C11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1030,10 +1027,10 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>0.844444444444444</v>
+        <v>0.647619047619048</v>
       </c>
       <c r="C2" t="s">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="D2" t="s">
         <v>104</v>
@@ -1044,10 +1041,10 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>0.431746031746032</v>
+        <v>0.434920634920635</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
         <v>104</v>
@@ -1058,10 +1055,10 @@
         <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>0.355555555555556</v>
+        <v>0.415873015873016</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>68</v>
       </c>
       <c r="D4" t="s">
         <v>104</v>
@@ -1072,10 +1069,10 @@
         <v>11</v>
       </c>
       <c r="B5" t="n">
-        <v>0.126984126984127</v>
+        <v>0.482539682539683</v>
       </c>
       <c r="C5" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D5" t="s">
         <v>104</v>
@@ -1086,10 +1083,10 @@
         <v>13</v>
       </c>
       <c r="B6" t="n">
-        <v>0.117460317460317</v>
+        <v>0.152380952380952</v>
       </c>
       <c r="C6" t="s">
-        <v>98</v>
+        <v>12</v>
       </c>
       <c r="D6" t="s">
         <v>104</v>
@@ -1103,7 +1100,7 @@
         <v>0.107936507936508</v>
       </c>
       <c r="C7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D7" t="s">
         <v>104</v>
@@ -1114,10 +1111,10 @@
         <v>17</v>
       </c>
       <c r="B8" t="n">
-        <v>0.304761904761905</v>
+        <v>0.104761904761905</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="D8" t="s">
         <v>104</v>
@@ -1131,7 +1128,7 @@
         <v>0.111111111111111</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="D9" t="s">
         <v>104</v>
@@ -1142,10 +1139,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="n">
-        <v>0.13015873015873</v>
+        <v>0.101587301587302</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
         <v>104</v>
@@ -1156,10 +1153,10 @@
         <v>23</v>
       </c>
       <c r="B11" t="n">
-        <v>0.133333333333333</v>
+        <v>0.117460317460317</v>
       </c>
       <c r="C11" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D11" t="s">
         <v>104</v>
@@ -1170,10 +1167,10 @@
         <v>38</v>
       </c>
       <c r="B12" t="n">
-        <v>0.155555555555556</v>
+        <v>0.142857142857143</v>
       </c>
       <c r="C12" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="D12" t="s">
         <v>104</v>
@@ -1184,10 +1181,10 @@
         <v>40</v>
       </c>
       <c r="B13" t="n">
-        <v>0.384126984126984</v>
+        <v>0.193650793650794</v>
       </c>
       <c r="C13" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D13" t="s">
         <v>104</v>
@@ -1198,7 +1195,7 @@
         <v>42</v>
       </c>
       <c r="B14" t="n">
-        <v>0.2</v>
+        <v>0.288888888888889</v>
       </c>
       <c r="C14" t="s">
         <v>80</v>
@@ -1212,10 +1209,10 @@
         <v>44</v>
       </c>
       <c r="B15" t="n">
-        <v>0.126984126984127</v>
+        <v>0.177777777777778</v>
       </c>
       <c r="C15" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="D15" t="s">
         <v>104</v>
@@ -1226,10 +1223,10 @@
         <v>46</v>
       </c>
       <c r="B16" t="n">
-        <v>0.117460317460317</v>
+        <v>0.288888888888889</v>
       </c>
       <c r="C16" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D16" t="s">
         <v>104</v>
@@ -1240,10 +1237,10 @@
         <v>48</v>
       </c>
       <c r="B17" t="n">
-        <v>0.107936507936508</v>
+        <v>0.114285714285714</v>
       </c>
       <c r="C17" t="s">
-        <v>94</v>
+        <v>37</v>
       </c>
       <c r="D17" t="s">
         <v>104</v>
@@ -1254,54 +1251,12 @@
         <v>50</v>
       </c>
       <c r="B18" t="n">
-        <v>0.257142857142857</v>
+        <v>0.101587301587302</v>
       </c>
       <c r="C18" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="D18" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>52</v>
-      </c>
-      <c r="B19" t="n">
-        <v>0.111111111111111</v>
-      </c>
-      <c r="C19" t="s">
-        <v>93</v>
-      </c>
-      <c r="D19" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>54</v>
-      </c>
-      <c r="B20" t="n">
-        <v>0.114285714285714</v>
-      </c>
-      <c r="C20" t="s">
-        <v>106</v>
-      </c>
-      <c r="D20" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s">
-        <v>56</v>
-      </c>
-      <c r="B21" t="n">
-        <v>0.155555555555556</v>
-      </c>
-      <c r="C21" t="s">
-        <v>99</v>
-      </c>
-      <c r="D21" t="s">
         <v>104</v>
       </c>
     </row>
@@ -1338,7 +1293,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>0.195416931890516</v>
+        <v>0.218332272437938</v>
       </c>
       <c r="C2" t="s">
         <v>29</v>
@@ -1352,10 +1307,10 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>0.179185232336092</v>
+        <v>0.178548695098663</v>
       </c>
       <c r="C3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D3" t="s">
         <v>104</v>
@@ -1366,10 +1321,10 @@
         <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>0.294080203691916</v>
+        <v>0.270210057288351</v>
       </c>
       <c r="C4" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D4" t="s">
         <v>104</v>
@@ -1380,10 +1335,10 @@
         <v>11</v>
       </c>
       <c r="B5" t="n">
-        <v>0.273392743475493</v>
+        <v>0.175684277530236</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="D5" t="s">
         <v>104</v>
@@ -1394,10 +1349,10 @@
         <v>13</v>
       </c>
       <c r="B6" t="n">
-        <v>0.157861234882241</v>
+        <v>0.157542966263526</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>104</v>
@@ -1408,7 +1363,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="n">
-        <v>0.401654996817314</v>
+        <v>0.37555697008275</v>
       </c>
       <c r="C7" t="s">
         <v>103</v>
@@ -1422,10 +1377,10 @@
         <v>17</v>
       </c>
       <c r="B8" t="n">
-        <v>0.147994907702101</v>
+        <v>0.107256524506684</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>86</v>
       </c>
       <c r="D8" t="s">
         <v>104</v>
@@ -1436,10 +1391,10 @@
         <v>19</v>
       </c>
       <c r="B9" t="n">
-        <v>0.125079567154679</v>
+        <v>0.152450668364099</v>
       </c>
       <c r="C9" t="s">
-        <v>69</v>
+        <v>8</v>
       </c>
       <c r="D9" t="s">
         <v>104</v>
@@ -1450,10 +1405,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="n">
-        <v>0.104392106938256</v>
+        <v>0.27466581795035</v>
       </c>
       <c r="C10" t="s">
-        <v>88</v>
+        <v>30</v>
       </c>
       <c r="D10" t="s">
         <v>104</v>
@@ -1464,10 +1419,10 @@
         <v>23</v>
       </c>
       <c r="B11" t="n">
-        <v>0.107574793125398</v>
+        <v>0.10852959898154</v>
       </c>
       <c r="C11" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D11" t="s">
         <v>104</v>
@@ -1859,7 +1814,7 @@
         <v>0.135593220338983</v>
       </c>
       <c r="C18" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="D18" t="s">
         <v>31</v>
@@ -1867,13 +1822,13 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B19" t="n">
         <v>0.135593220338983</v>
       </c>
       <c r="C19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D19" t="s">
         <v>31</v>
@@ -1881,13 +1836,13 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B20" t="n">
         <v>0.194915254237288</v>
       </c>
       <c r="C20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D20" t="s">
         <v>31</v>
@@ -1895,13 +1850,13 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B21" t="n">
         <v>0.13135593220339</v>
       </c>
       <c r="C21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D21" t="s">
         <v>31</v>
@@ -1909,13 +1864,13 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B22" t="n">
         <v>0.135593220338983</v>
       </c>
       <c r="C22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D22" t="s">
         <v>31</v>
@@ -1923,13 +1878,13 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B23" t="n">
         <v>0.135593220338983</v>
       </c>
       <c r="C23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D23" t="s">
         <v>31</v>
@@ -1937,13 +1892,13 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B24" t="n">
         <v>0.135593220338983</v>
       </c>
       <c r="C24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D24" t="s">
         <v>31</v>
@@ -1951,13 +1906,13 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B25" t="n">
         <v>0.135593220338983</v>
       </c>
       <c r="C25" t="s">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="D25" t="s">
         <v>31</v>
@@ -1971,7 +1926,7 @@
         <v>0.135593220338983</v>
       </c>
       <c r="C26" t="s">
-        <v>66</v>
+        <v>24</v>
       </c>
       <c r="D26" t="s">
         <v>31</v>
@@ -1979,13 +1934,13 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B27" t="n">
         <v>0.135593220338983</v>
       </c>
       <c r="C27" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D27" t="s">
         <v>31</v>
@@ -2206,13 +2161,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>0.435114503816794</v>
+        <v>0.516539440203562</v>
       </c>
       <c r="C2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" t="s">
         <v>69</v>
-      </c>
-      <c r="D2" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="3">
@@ -2220,13 +2175,13 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>0.343511450381679</v>
+        <v>0.361323155216285</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4">
@@ -2234,13 +2189,13 @@
         <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>0.213740458015267</v>
+        <v>0.234096692111959</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="D4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5">
@@ -2248,13 +2203,13 @@
         <v>11</v>
       </c>
       <c r="B5" t="n">
-        <v>0.137404580152672</v>
+        <v>0.134860050890585</v>
       </c>
       <c r="C5" t="s">
         <v>71</v>
       </c>
       <c r="D5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6">
@@ -2268,7 +2223,7 @@
         <v>72</v>
       </c>
       <c r="D6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7">
@@ -2276,13 +2231,13 @@
         <v>15</v>
       </c>
       <c r="B7" t="n">
-        <v>0.11704834605598</v>
+        <v>0.129770992366412</v>
       </c>
       <c r="C7" t="s">
         <v>73</v>
       </c>
       <c r="D7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8">
@@ -2290,13 +2245,13 @@
         <v>17</v>
       </c>
       <c r="B8" t="n">
-        <v>0.346055979643766</v>
+        <v>0.244274809160305</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9">
@@ -2304,13 +2259,13 @@
         <v>19</v>
       </c>
       <c r="B9" t="n">
-        <v>0.180661577608142</v>
+        <v>0.203562340966921</v>
       </c>
       <c r="C9" t="s">
-        <v>74</v>
+        <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10">
@@ -2318,13 +2273,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="n">
-        <v>0.269720101781171</v>
+        <v>0.249363867684478</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11">
@@ -2332,13 +2287,13 @@
         <v>23</v>
       </c>
       <c r="B11" t="n">
-        <v>0.122137404580153</v>
+        <v>0.170483460559796</v>
       </c>
       <c r="C11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12">
@@ -2346,13 +2301,13 @@
         <v>38</v>
       </c>
       <c r="B12" t="n">
-        <v>0.195928753180662</v>
+        <v>0.363867684478371</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="D12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13">
@@ -2360,13 +2315,13 @@
         <v>40</v>
       </c>
       <c r="B13" t="n">
-        <v>0.157760814249364</v>
+        <v>0.137404580152672</v>
       </c>
       <c r="C13" t="s">
-        <v>76</v>
+        <v>8</v>
       </c>
       <c r="D13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14">
@@ -2374,13 +2329,13 @@
         <v>42</v>
       </c>
       <c r="B14" t="n">
-        <v>0.340966921119593</v>
+        <v>0.139949109414758</v>
       </c>
       <c r="C14" t="s">
-        <v>77</v>
+        <v>34</v>
       </c>
       <c r="D14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15">
@@ -2388,13 +2343,13 @@
         <v>44</v>
       </c>
       <c r="B15" t="n">
-        <v>0.114503816793893</v>
+        <v>0.106870229007634</v>
       </c>
       <c r="C15" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16">
@@ -2402,13 +2357,13 @@
         <v>46</v>
       </c>
       <c r="B16" t="n">
-        <v>0.155216284987277</v>
+        <v>0.134860050890585</v>
       </c>
       <c r="C16" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17">
@@ -2416,13 +2371,13 @@
         <v>48</v>
       </c>
       <c r="B17" t="n">
-        <v>0.114503816793893</v>
+        <v>0.145038167938931</v>
       </c>
       <c r="C17" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18">
@@ -2430,69 +2385,55 @@
         <v>50</v>
       </c>
       <c r="B18" t="n">
-        <v>0.129770992366412</v>
+        <v>0.114503816793893</v>
       </c>
       <c r="C18" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B19" t="n">
-        <v>0.106870229007634</v>
+        <v>0.111959287531807</v>
       </c>
       <c r="C19" t="s">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="D19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B20" t="n">
-        <v>0.10941475826972</v>
+        <v>0.124681933842239</v>
       </c>
       <c r="C20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B21" t="n">
-        <v>0.114503816793893</v>
+        <v>0.134860050890585</v>
       </c>
       <c r="C21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D21" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s">
-        <v>58</v>
-      </c>
-      <c r="B22" t="n">
-        <v>0.119592875318066</v>
-      </c>
-      <c r="C22" t="s">
-        <v>83</v>
-      </c>
-      <c r="D22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -2528,13 +2469,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>0.226184411614875</v>
+        <v>0.248853795211411</v>
       </c>
       <c r="C2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3">
@@ -2542,13 +2483,13 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>0.200713194090678</v>
+        <v>0.127865511971472</v>
       </c>
       <c r="C3" t="s">
-        <v>77</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4">
@@ -2556,13 +2497,13 @@
         <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>0.106724401426388</v>
+        <v>0.231023942944473</v>
       </c>
       <c r="C4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5">
@@ -2570,13 +2511,13 @@
         <v>11</v>
       </c>
       <c r="B5" t="n">
-        <v>0.177024961793174</v>
+        <v>0.1984207845135</v>
       </c>
       <c r="C5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5" t="s">
         <v>69</v>
-      </c>
-      <c r="D5" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="6">
@@ -2584,13 +2525,13 @@
         <v>13</v>
       </c>
       <c r="B6" t="n">
-        <v>0.10570555272542</v>
+        <v>0.118950585838003</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7">
@@ -2598,13 +2539,13 @@
         <v>15</v>
       </c>
       <c r="B7" t="n">
-        <v>0.104941416199694</v>
+        <v>0.145950076413653</v>
       </c>
       <c r="C7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8">
@@ -2612,13 +2553,13 @@
         <v>17</v>
       </c>
       <c r="B8" t="n">
-        <v>0.151553744268976</v>
+        <v>0.175751400916964</v>
       </c>
       <c r="C8" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="D8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9">
@@ -2626,13 +2567,13 @@
         <v>19</v>
       </c>
       <c r="B9" t="n">
-        <v>0.244523688232298</v>
+        <v>0.120733571064697</v>
       </c>
       <c r="C9" t="s">
-        <v>87</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10">
@@ -2640,13 +2581,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="n">
-        <v>0.122771268466633</v>
+        <v>0.111818644931228</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="D10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11">
@@ -2654,13 +2595,13 @@
         <v>23</v>
       </c>
       <c r="B11" t="n">
-        <v>0.227967396841569</v>
+        <v>0.227203260315843</v>
       </c>
       <c r="C11" t="s">
         <v>30</v>
       </c>
       <c r="D11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12">
@@ -2668,13 +2609,13 @@
         <v>38</v>
       </c>
       <c r="B12" t="n">
-        <v>0.117167600611309</v>
+        <v>0.10697911360163</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
       <c r="D12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13">
@@ -2685,10 +2626,10 @@
         <v>0.141874681609781</v>
       </c>
       <c r="C13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14">
@@ -2699,10 +2640,10 @@
         <v>0.124808965868569</v>
       </c>
       <c r="C14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -2738,13 +2679,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>0.526717557251908</v>
+        <v>0.524173027989822</v>
       </c>
       <c r="C2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3">
@@ -2752,13 +2693,13 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>0.310432569974555</v>
+        <v>0.206106870229008</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="D3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4">
@@ -2766,13 +2707,13 @@
         <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>0.190839694656489</v>
+        <v>0.188295165394402</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5">
@@ -2780,13 +2721,13 @@
         <v>11</v>
       </c>
       <c r="B5" t="n">
-        <v>0.157760814249364</v>
+        <v>0.173027989821883</v>
       </c>
       <c r="C5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6">
@@ -2794,13 +2735,13 @@
         <v>13</v>
       </c>
       <c r="B6" t="n">
-        <v>0.124681933842239</v>
+        <v>0.239185750636132</v>
       </c>
       <c r="C6" t="s">
-        <v>91</v>
+        <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7">
@@ -2808,13 +2749,13 @@
         <v>15</v>
       </c>
       <c r="B7" t="n">
-        <v>0.114503816793893</v>
+        <v>0.183206106870229</v>
       </c>
       <c r="C7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8">
@@ -2822,13 +2763,13 @@
         <v>17</v>
       </c>
       <c r="B8" t="n">
-        <v>0.241730279898219</v>
+        <v>0.114503816793893</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="D8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9">
@@ -2836,13 +2777,13 @@
         <v>19</v>
       </c>
       <c r="B9" t="n">
-        <v>0.236641221374046</v>
+        <v>0.264631043256997</v>
       </c>
       <c r="C9" t="s">
-        <v>74</v>
+        <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10">
@@ -2850,13 +2791,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="n">
-        <v>0.16793893129771</v>
+        <v>0.139949109414758</v>
       </c>
       <c r="C10" t="s">
         <v>71</v>
       </c>
       <c r="D10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11">
@@ -2864,13 +2805,13 @@
         <v>23</v>
       </c>
       <c r="B11" t="n">
-        <v>0.134860050890585</v>
+        <v>0.259541984732824</v>
       </c>
       <c r="C11" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12">
@@ -2878,13 +2819,13 @@
         <v>38</v>
       </c>
       <c r="B12" t="n">
-        <v>0.244274809160305</v>
+        <v>0.262086513994911</v>
       </c>
       <c r="C12" t="s">
-        <v>77</v>
+        <v>36</v>
       </c>
       <c r="D12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13">
@@ -2892,13 +2833,13 @@
         <v>40</v>
       </c>
       <c r="B13" t="n">
-        <v>0.162849872773537</v>
+        <v>0.16793893129771</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14">
@@ -2906,13 +2847,13 @@
         <v>42</v>
       </c>
       <c r="B14" t="n">
-        <v>0.305343511450382</v>
+        <v>0.254452926208651</v>
       </c>
       <c r="C14" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="D14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15">
@@ -2920,13 +2861,13 @@
         <v>44</v>
       </c>
       <c r="B15" t="n">
-        <v>0.180661577608142</v>
+        <v>0.124681933842239</v>
       </c>
       <c r="C15" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="D15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16">
@@ -2934,13 +2875,13 @@
         <v>46</v>
       </c>
       <c r="B16" t="n">
-        <v>0.106870229007634</v>
+        <v>0.162849872773537</v>
       </c>
       <c r="C16" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="D16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17">
@@ -2948,13 +2889,13 @@
         <v>48</v>
       </c>
       <c r="B17" t="n">
-        <v>0.122137404580153</v>
+        <v>0.201017811704835</v>
       </c>
       <c r="C17" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18">
@@ -2962,83 +2903,97 @@
         <v>50</v>
       </c>
       <c r="B18" t="n">
-        <v>0.188295165394402</v>
+        <v>0.106870229007634</v>
       </c>
       <c r="C18" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="D18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B19" t="n">
-        <v>0.142493638676845</v>
+        <v>0.157760814249364</v>
       </c>
       <c r="C19" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="D19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B20" t="n">
-        <v>0.155216284987277</v>
+        <v>0.119592875318066</v>
       </c>
       <c r="C20" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B21" t="n">
-        <v>0.10941475826972</v>
+        <v>0.127226463104326</v>
       </c>
       <c r="C21" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D21" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B22" t="n">
-        <v>0.106870229007634</v>
+        <v>0.119592875318066</v>
       </c>
       <c r="C22" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D22" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B23" t="n">
-        <v>0.129770992366412</v>
+        <v>0.111959287531807</v>
       </c>
       <c r="C23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D23" t="s">
-        <v>90</v>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>61</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.101781170483461</v>
+      </c>
+      <c r="C24" t="s">
+        <v>93</v>
+      </c>
+      <c r="D24" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -3074,13 +3029,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>0.206316861946001</v>
+        <v>0.205298013245033</v>
       </c>
       <c r="C2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3">
@@ -3088,13 +3043,13 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>0.173204279164544</v>
+        <v>0.222873153336729</v>
       </c>
       <c r="C3" t="s">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4">
@@ -3102,13 +3057,13 @@
         <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>0.110290371879776</v>
+        <v>0.174477840040754</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>68</v>
       </c>
       <c r="D4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5">
@@ -3116,13 +3071,13 @@
         <v>11</v>
       </c>
       <c r="B5" t="n">
-        <v>0.227967396841569</v>
+        <v>0.226439123790117</v>
       </c>
       <c r="C5" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="D5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6">
@@ -3130,13 +3085,13 @@
         <v>13</v>
       </c>
       <c r="B6" t="n">
-        <v>0.226948548140601</v>
+        <v>0.224910850738665</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="D6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7">
@@ -3144,13 +3099,13 @@
         <v>15</v>
       </c>
       <c r="B7" t="n">
-        <v>0.222873153336729</v>
+        <v>0.114875191034131</v>
       </c>
       <c r="C7" t="s">
-        <v>76</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8">
@@ -3158,13 +3113,13 @@
         <v>17</v>
       </c>
       <c r="B8" t="n">
-        <v>0.10443199184921</v>
+        <v>0.129139072847682</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9">
@@ -3172,13 +3127,13 @@
         <v>19</v>
       </c>
       <c r="B9" t="n">
-        <v>0.118695873662761</v>
+        <v>0.114365766683647</v>
       </c>
       <c r="C9" t="s">
-        <v>95</v>
+        <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10">
@@ -3186,13 +3141,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="n">
-        <v>0.121497707590423</v>
+        <v>0.118441161487519</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>94</v>
       </c>
       <c r="D10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11">
@@ -3200,13 +3155,13 @@
         <v>23</v>
       </c>
       <c r="B11" t="n">
-        <v>0.169638308711156</v>
+        <v>0.16887417218543</v>
       </c>
       <c r="C11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12">
@@ -3217,10 +3172,10 @@
         <v>0.142638818135507</v>
       </c>
       <c r="C12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13">
@@ -3231,10 +3186,10 @@
         <v>0.124808965868569</v>
       </c>
       <c r="C13" t="s">
+        <v>88</v>
+      </c>
+      <c r="D13" t="s">
         <v>89</v>
-      </c>
-      <c r="D13" t="s">
-        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -3273,10 +3228,10 @@
         <v>0.596825396825397</v>
       </c>
       <c r="C2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3">
@@ -3290,7 +3245,7 @@
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4">
@@ -3304,7 +3259,7 @@
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5">
@@ -3315,10 +3270,10 @@
         <v>0.126984126984127</v>
       </c>
       <c r="C5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6">
@@ -3329,10 +3284,10 @@
         <v>0.403174603174603</v>
       </c>
       <c r="C6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7">
@@ -3343,10 +3298,10 @@
         <v>0.101587301587302</v>
       </c>
       <c r="C7" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="D7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8">
@@ -3360,7 +3315,7 @@
         <v>36</v>
       </c>
       <c r="D8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9">
@@ -3374,7 +3329,7 @@
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10">
@@ -3388,7 +3343,7 @@
         <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11">
@@ -3399,10 +3354,10 @@
         <v>0.168253968253968</v>
       </c>
       <c r="C11" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12">
@@ -3416,7 +3371,7 @@
         <v>34</v>
       </c>
       <c r="D12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13">
@@ -3430,7 +3385,7 @@
         <v>98</v>
       </c>
       <c r="D13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14">
@@ -3444,7 +3399,7 @@
         <v>14</v>
       </c>
       <c r="D14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15">
@@ -3455,10 +3410,10 @@
         <v>0.180952380952381</v>
       </c>
       <c r="C15" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16">
@@ -3469,10 +3424,10 @@
         <v>0.168253968253968</v>
       </c>
       <c r="C16" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="D16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17">
@@ -3483,10 +3438,10 @@
         <v>0.180952380952381</v>
       </c>
       <c r="C17" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="D17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18">
@@ -3497,43 +3452,43 @@
         <v>0.206349206349206</v>
       </c>
       <c r="C18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B19" t="n">
         <v>0.212698412698413</v>
       </c>
       <c r="C19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B20" t="n">
         <v>0.107936507936508</v>
       </c>
       <c r="C20" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="D20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B21" t="n">
         <v>0.126984126984127</v>
@@ -3542,12 +3497,12 @@
         <v>101</v>
       </c>
       <c r="D21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B22" t="n">
         <v>0.104761904761905</v>
@@ -3556,7 +3511,7 @@
         <v>102</v>
       </c>
       <c r="D22" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
